--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1992.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1992.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.181292995844586</v>
+        <v>0.6279773116111755</v>
       </c>
       <c r="B1">
-        <v>2.200491534703588</v>
+        <v>0.9818241596221924</v>
       </c>
       <c r="C1">
-        <v>8.201464030153575</v>
+        <v>2.544865846633911</v>
       </c>
       <c r="D1">
-        <v>2.621770995191053</v>
+        <v>6.346468448638916</v>
       </c>
       <c r="E1">
-        <v>1.206394684898584</v>
+        <v>2.121020555496216</v>
       </c>
     </row>
   </sheetData>
